--- a/Doco/usecase.xlsx
+++ b/Doco/usecase.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Client" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Trainer" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Admin" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Jurnal" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t xml:space="preserve">Sprint ID</t>
   </si>
@@ -103,14 +104,48 @@
   </si>
   <si>
     <t xml:space="preserve">View earning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attendee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">todo (D+1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z, A, J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WA con call</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to PIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy authentication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buat repo Github untuk EMDP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Draft interface Login dan Admin (CRUD)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -177,12 +212,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -205,7 +244,7 @@
   </sheetPr>
   <dimension ref="B2:D8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -412,7 +451,7 @@
   <dimension ref="B2:D12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -526,4 +565,91 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C3:J6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="2.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="2.77"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="2" t="n">
+        <v>43746</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>